--- a/jpcore-r4/feature/kohe-dotPackage-test/StructureDefinition-jp-medicationadministrationBase.xlsx
+++ b/jpcore-r4/feature/kohe-dotPackage-test/StructureDefinition-jp-medicationadministrationBase.xlsx
@@ -352,7 +352,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
+    <t>「リソースコンテンツの言語」</t>
   </si>
   <si>
     <t>リソースが書かれている基本言語。</t>
@@ -364,7 +364,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>「人間の言語。」(Ningen no gengo.)</t>
+    <t>「人間の言語。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -410,7 +410,7 @@
 </t>
   </si>
   <si>
-    <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
+    <t>「含まれている、インラインのリソース」</t>
   </si>
   <si>
     <t>これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。</t>
@@ -1031,7 +1031,7 @@
 </t>
   </si>
   <si>
-    <t>「誰が薬を受け取りましたか？」(dare ga kusuri o uketorimashita ka?)</t>
+    <t>「誰が薬を受け取りましたか？」</t>
   </si>
   <si>
     <t>薬を受け取る人、動物、またはグループ。 (Kusuri wo uketoru hito, doubutsu, matawa guruupu.)</t>
@@ -1097,7 +1097,7 @@
 Period</t>
   </si>
   <si>
-    <t>「管理の開始時刻と終了時刻」(Kanri no kaishi jikoku to shūryō jikoku)</t>
+    <t>「管理の開始時刻と終了時刻」</t>
   </si>
   <si>
     <t>与えられた属性が「真実」となっている場合に、行政が行われた（または行われなかった）特定の日時または時間の間隔。錠剤の服用など、多くの行政では、dateTimeの使用が適切です。</t>
@@ -1178,7 +1178,7 @@
     <t>MedicationAdministration.performer.function</t>
   </si>
   <si>
-    <t>「パフォーマンスの種類」(Pafōmansu no shurui)</t>
+    <t>「パフォーマンスの種類」</t>
   </si>
   <si>
     <t>演者の医薬品投与における関与タイプを区別します。 (Ensha no iyakuhin tōyo ni okeru kan'yo taipu o kubetsushimasu.)</t>
@@ -1203,7 +1203,7 @@
 </t>
   </si>
   <si>
-    <t>「薬剤投与を行ったのは誰ですか？」(Yakuzaiteiyogyou o okonatta no wa dare desu ka?)</t>
+    <t>「薬剤投与を行ったのは誰ですか？」</t>
   </si>
   <si>
     <t>薬剤投与を行った人物または物品を示す</t>
@@ -1318,7 +1318,7 @@
 </t>
   </si>
   <si>
-    <t>「行政に関する情報」(Gyōsei ni kansuru jōhō)</t>
+    <t>「行政に関する情報」</t>
   </si>
   <si>
     <t>他の属性では伝えられない薬剤投与に関する追加情報</t>
